--- a/output/assignment_report.xlsx
+++ b/output/assignment_report.xlsx
@@ -1583,7 +1583,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>T9,T4</t>
+          <t>T4,T9</t>
         </is>
       </c>
     </row>
